--- a/src/main/resources/static/file/批量消费.xlsx
+++ b/src/main/resources/static/file/批量消费.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuning/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
-    <sheet name="123" sheetId="1" r:id="rId1"/>
+    <sheet name="批量消费" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -44,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,15 +381,15 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
